--- a/results/measures.xlsx
+++ b/results/measures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddesblancs/Documents/SSLMB/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddesblancs/Documents/zeroNoteSamba/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB70298-0869-A446-8CD5-A7E2D28038CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691E019-C0DC-5B42-999F-FC07082210E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,754 +715,772 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>9.0995000000000006E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.84198700000000004</v>
-      </c>
-      <c r="E8" s="4">
-        <v>35.857626000000003</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5.3917149999999996</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.22870399999999999</v>
-      </c>
-      <c r="H8" s="4">
-        <v>6.7734000000000003E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.14732600000000001</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>0.101231</v>
-      </c>
-      <c r="D9">
-        <v>0.92214700000000005</v>
-      </c>
-      <c r="E9">
-        <v>41.767516999999998</v>
-      </c>
-      <c r="F9">
-        <v>7.4054849999999997</v>
-      </c>
-      <c r="G9">
-        <v>0.30908400000000003</v>
-      </c>
-      <c r="H9">
-        <v>9.1667999999999999E-2</v>
-      </c>
-      <c r="I9">
-        <v>0.23056399999999999</v>
-      </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>0.111183</v>
-      </c>
-      <c r="D10">
-        <v>0.946268</v>
-      </c>
-      <c r="E10">
-        <v>51.715958000000001</v>
-      </c>
-      <c r="F10">
-        <v>7.8308580000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.36976500000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.116866</v>
-      </c>
-      <c r="I10">
-        <v>0.37637100000000001</v>
-      </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>0.121563</v>
-      </c>
-      <c r="D11">
-        <v>0.95723999999999998</v>
-      </c>
-      <c r="E11">
-        <v>73.447265999999999</v>
-      </c>
-      <c r="F11">
-        <v>8.1723990000000004</v>
-      </c>
-      <c r="G11">
-        <v>0.443523</v>
-      </c>
-      <c r="H11">
-        <v>0.152396</v>
-      </c>
-      <c r="I11">
-        <v>0.53622599999999998</v>
-      </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>0.13567199999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.96303899999999998</v>
-      </c>
-      <c r="E12">
-        <v>284.66456699999998</v>
-      </c>
-      <c r="F12">
-        <v>8.4603640000000002</v>
-      </c>
-      <c r="G12">
-        <v>0.53322999999999998</v>
-      </c>
-      <c r="H12">
-        <v>0.211284</v>
-      </c>
-      <c r="I12">
-        <v>0.66974800000000001</v>
-      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>0.11856</v>
-      </c>
-      <c r="D13">
-        <v>0.91015199999999996</v>
-      </c>
-      <c r="E13">
-        <v>133.62637599999999</v>
-      </c>
-      <c r="F13">
-        <v>7.390676</v>
-      </c>
-      <c r="G13">
-        <v>0.37343300000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.12941900000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.39166200000000001</v>
-      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>8.7596999999999994E-2</v>
-      </c>
-      <c r="D14">
-        <v>0.87558400000000003</v>
-      </c>
-      <c r="E14">
-        <v>38.184260999999999</v>
-      </c>
-      <c r="F14">
-        <v>7.162223</v>
-      </c>
-      <c r="G14">
-        <v>0.33453699999999997</v>
-      </c>
-      <c r="H14">
-        <v>0.101704</v>
-      </c>
-      <c r="I14">
-        <v>0.11809500000000001</v>
+        <v>9.0995000000000006E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.84198700000000004</v>
+      </c>
+      <c r="E14" s="4">
+        <v>35.857626000000003</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.3917149999999996</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.22870399999999999</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6.7734000000000003E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.14732600000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>9.7083000000000003E-2</v>
+        <v>0.101231</v>
       </c>
       <c r="D15">
-        <v>0.91498900000000005</v>
+        <v>0.92214700000000005</v>
       </c>
       <c r="E15">
-        <v>43.846710999999999</v>
+        <v>41.767516999999998</v>
       </c>
       <c r="F15">
-        <v>7.546036</v>
+        <v>7.4054849999999997</v>
       </c>
       <c r="G15">
-        <v>0.381799</v>
+        <v>0.30908400000000003</v>
       </c>
       <c r="H15">
-        <v>0.123797</v>
+        <v>9.1667999999999999E-2</v>
       </c>
       <c r="I15">
-        <v>0.16745699999999999</v>
+        <v>0.23056399999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C16">
-        <v>0.105741</v>
+        <v>0.111183</v>
       </c>
       <c r="D16">
-        <v>0.93736799999999998</v>
+        <v>0.946268</v>
       </c>
       <c r="E16">
-        <v>53.210599999999999</v>
+        <v>51.715958000000001</v>
       </c>
       <c r="F16">
-        <v>7.8686389999999999</v>
+        <v>7.8308580000000001</v>
       </c>
       <c r="G16">
-        <v>0.44205499999999998</v>
+        <v>0.36976500000000001</v>
       </c>
       <c r="H16">
-        <v>0.153976</v>
+        <v>0.116866</v>
       </c>
       <c r="I16">
-        <v>0.291879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.37637100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C17">
-        <v>0.11450100000000001</v>
+        <v>0.121563</v>
       </c>
       <c r="D17">
-        <v>0.94920800000000005</v>
+        <v>0.95723999999999998</v>
       </c>
       <c r="E17">
-        <v>68.975305000000006</v>
+        <v>73.447265999999999</v>
       </c>
       <c r="F17">
-        <v>8.1340970000000006</v>
+        <v>8.1723990000000004</v>
       </c>
       <c r="G17">
-        <v>0.53018600000000005</v>
+        <v>0.443523</v>
       </c>
       <c r="H17">
-        <v>0.20504700000000001</v>
+        <v>0.152396</v>
       </c>
       <c r="I17">
-        <v>0.45166800000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.53622599999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>0.121984</v>
+        <v>0.13567199999999999</v>
       </c>
       <c r="D18">
-        <v>0.95712600000000003</v>
+        <v>0.96303899999999998</v>
       </c>
       <c r="E18">
-        <v>93.209934000000004</v>
+        <v>284.66456699999998</v>
       </c>
       <c r="F18">
-        <v>8.3877679999999994</v>
+        <v>8.4603640000000002</v>
       </c>
       <c r="G18">
-        <v>0.61518200000000001</v>
+        <v>0.53322999999999998</v>
       </c>
       <c r="H18">
-        <v>0.27434399999999998</v>
+        <v>0.211284</v>
       </c>
       <c r="I18">
-        <v>0.576125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.66974800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C19">
-        <v>0.10510700000000001</v>
+        <v>0.11856</v>
       </c>
       <c r="D19">
-        <v>0.92301</v>
+        <v>0.91015199999999996</v>
       </c>
       <c r="E19">
-        <v>62.664878000000002</v>
+        <v>133.62637599999999</v>
       </c>
       <c r="F19">
-        <v>7.809075</v>
+        <v>7.390676</v>
       </c>
       <c r="G19">
-        <v>0.46599600000000002</v>
+        <v>0.37343300000000001</v>
       </c>
       <c r="H19">
-        <v>0.18082899999999999</v>
+        <v>0.12941900000000001</v>
       </c>
       <c r="I19">
-        <v>0.32311800000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.39166200000000001</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C20">
-        <v>7.7951999999999994E-2</v>
+        <v>8.7596999999999994E-2</v>
       </c>
       <c r="D20">
-        <v>0.84359799999999996</v>
+        <v>0.87558400000000003</v>
       </c>
       <c r="E20">
-        <v>29.603491000000002</v>
+        <v>38.184260999999999</v>
       </c>
       <c r="F20">
-        <v>7.5699769999999997</v>
+        <v>7.162223</v>
       </c>
       <c r="G20">
-        <v>0.35819600000000001</v>
+        <v>0.33453699999999997</v>
       </c>
       <c r="H20">
-        <v>0.109574</v>
+        <v>0.101704</v>
       </c>
       <c r="I20">
-        <v>0.12403599999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.11809500000000001</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C21">
-        <v>8.5694999999999993E-2</v>
+        <v>9.7083000000000003E-2</v>
       </c>
       <c r="D21">
-        <v>0.89265000000000005</v>
+        <v>0.91498900000000005</v>
       </c>
       <c r="E21">
-        <v>34.499037000000001</v>
+        <v>43.846710999999999</v>
       </c>
       <c r="F21">
-        <v>7.9958660000000004</v>
+        <v>7.546036</v>
       </c>
       <c r="G21">
-        <v>0.411611</v>
+        <v>0.381799</v>
       </c>
       <c r="H21">
-        <v>0.13361400000000001</v>
+        <v>0.123797</v>
       </c>
       <c r="I21">
-        <v>0.19734599999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.16745699999999999</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C22">
-        <v>9.4728999999999994E-2</v>
+        <v>0.105741</v>
       </c>
       <c r="D22">
-        <v>0.92381199999999997</v>
+        <v>0.93736799999999998</v>
       </c>
       <c r="E22">
-        <v>41.692301999999998</v>
+        <v>53.210599999999999</v>
       </c>
       <c r="F22">
-        <v>8.2912429999999997</v>
+        <v>7.8686389999999999</v>
       </c>
       <c r="G22">
-        <v>0.48242699999999999</v>
+        <v>0.44205499999999998</v>
       </c>
       <c r="H22">
-        <v>0.172596</v>
+        <v>0.153976</v>
       </c>
       <c r="I22">
-        <v>0.36535099999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.291879</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C23">
-        <v>0.104037</v>
+        <v>0.11450100000000001</v>
       </c>
       <c r="D23">
-        <v>0.94013400000000003</v>
+        <v>0.94920800000000005</v>
       </c>
       <c r="E23">
-        <v>53.800418000000001</v>
+        <v>68.975305000000006</v>
       </c>
       <c r="F23">
-        <v>8.6298469999999998</v>
+        <v>8.1340970000000006</v>
       </c>
       <c r="G23">
-        <v>0.59632700000000005</v>
+        <v>0.53018600000000005</v>
       </c>
       <c r="H23">
-        <v>0.24635000000000001</v>
+        <v>0.20504700000000001</v>
       </c>
       <c r="I23">
-        <v>0.53215999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.45166800000000001</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>0.110927</v>
+        <v>0.121984</v>
       </c>
       <c r="D24">
-        <v>0.94997200000000004</v>
+        <v>0.95712600000000003</v>
       </c>
       <c r="E24">
-        <v>76.712762999999995</v>
+        <v>93.209934000000004</v>
       </c>
       <c r="F24">
-        <v>8.9027750000000001</v>
+        <v>8.3877679999999994</v>
       </c>
       <c r="G24">
-        <v>0.69906900000000005</v>
+        <v>0.61518200000000001</v>
       </c>
       <c r="H24">
-        <v>0.33666699999999999</v>
+        <v>0.27434399999999998</v>
       </c>
       <c r="I24">
-        <v>0.66820999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.576125</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C25">
-        <v>9.4437999999999994E-2</v>
+        <v>0.10510700000000001</v>
       </c>
       <c r="D25">
-        <v>0.90825699999999998</v>
+        <v>0.92301</v>
       </c>
       <c r="E25">
-        <v>49.914779000000003</v>
+        <v>62.664878000000002</v>
       </c>
       <c r="F25">
-        <v>8.2657500000000006</v>
+        <v>7.809075</v>
       </c>
       <c r="G25">
-        <v>0.51153899999999997</v>
+        <v>0.46599600000000002</v>
       </c>
       <c r="H25">
-        <v>0.20468900000000001</v>
+        <v>0.18082899999999999</v>
       </c>
       <c r="I25">
-        <v>0.37880599999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.32311800000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26">
-        <v>4.0277E-2</v>
+        <v>7.7951999999999994E-2</v>
       </c>
       <c r="D26">
-        <v>0.64099899999999999</v>
+        <v>0.84359799999999996</v>
       </c>
       <c r="E26">
-        <v>4.3969569999999996</v>
+        <v>29.603491000000002</v>
       </c>
       <c r="F26">
-        <v>10.257724</v>
+        <v>7.5699769999999997</v>
       </c>
       <c r="G26">
-        <v>0.34993299999999999</v>
+        <v>0.35819600000000001</v>
       </c>
       <c r="H26">
-        <v>0.117452</v>
+        <v>0.109574</v>
       </c>
       <c r="I26">
-        <v>0.32333600000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.12403599999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C27">
-        <v>4.8078000000000003E-2</v>
+        <v>8.5694999999999993E-2</v>
       </c>
       <c r="D27">
-        <v>0.75126000000000004</v>
+        <v>0.89265000000000005</v>
       </c>
       <c r="E27">
-        <v>5.9233130000000003</v>
+        <v>34.499037000000001</v>
       </c>
       <c r="F27">
-        <v>10.492763999999999</v>
+        <v>7.9958660000000004</v>
       </c>
       <c r="G27">
-        <v>0.40708699999999998</v>
+        <v>0.411611</v>
       </c>
       <c r="H27">
-        <v>0.14266200000000001</v>
+        <v>0.13361400000000001</v>
       </c>
       <c r="I27">
-        <v>0.48966599999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.19734599999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C28">
-        <v>5.5389000000000001E-2</v>
+        <v>9.4728999999999994E-2</v>
       </c>
       <c r="D28">
-        <v>0.82297100000000001</v>
+        <v>0.92381199999999997</v>
       </c>
       <c r="E28">
-        <v>7.4278320000000004</v>
+        <v>41.692301999999998</v>
       </c>
       <c r="F28">
-        <v>10.827507000000001</v>
+        <v>8.2912429999999997</v>
       </c>
       <c r="G28">
-        <v>0.48046699999999998</v>
+        <v>0.48242699999999999</v>
       </c>
       <c r="H28">
-        <v>0.18113000000000001</v>
+        <v>0.172596</v>
       </c>
       <c r="I28">
-        <v>0.666269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.36535099999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C29">
-        <v>6.1753000000000002E-2</v>
+        <v>0.104037</v>
       </c>
       <c r="D29">
-        <v>0.86401700000000003</v>
+        <v>0.94013400000000003</v>
       </c>
       <c r="E29">
-        <v>8.6587130000000005</v>
+        <v>53.800418000000001</v>
       </c>
       <c r="F29">
-        <v>11.260870000000001</v>
+        <v>8.6298469999999998</v>
       </c>
       <c r="G29">
-        <v>0.55983400000000005</v>
+        <v>0.59632700000000005</v>
       </c>
       <c r="H29">
-        <v>0.240957</v>
+        <v>0.24635000000000001</v>
       </c>
       <c r="I29">
-        <v>0.80791999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.53215999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30">
-        <v>6.7116999999999996E-2</v>
+        <v>0.110927</v>
       </c>
       <c r="D30">
-        <v>0.88804099999999997</v>
+        <v>0.94997200000000004</v>
       </c>
       <c r="E30">
-        <v>10.20462</v>
+        <v>76.712762999999995</v>
       </c>
       <c r="F30">
-        <v>11.812839</v>
+        <v>8.9027750000000001</v>
       </c>
       <c r="G30">
-        <v>0.64397800000000005</v>
+        <v>0.69906900000000005</v>
       </c>
       <c r="H30">
-        <v>0.32545600000000002</v>
+        <v>0.33666699999999999</v>
       </c>
       <c r="I30">
-        <v>0.88609599999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.66820999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C31">
-        <v>5.4452E-2</v>
+        <v>9.4437999999999994E-2</v>
       </c>
       <c r="D31">
-        <v>0.78780300000000003</v>
+        <v>0.90825699999999998</v>
       </c>
       <c r="E31">
-        <v>7.4187159999999999</v>
+        <v>49.914779000000003</v>
       </c>
       <c r="F31">
-        <v>10.960126000000001</v>
+        <v>8.2657500000000006</v>
       </c>
       <c r="G31">
-        <v>0.48788900000000002</v>
+        <v>0.51153899999999997</v>
       </c>
       <c r="H31">
-        <v>0.20755499999999999</v>
+        <v>0.20468900000000001</v>
       </c>
       <c r="I31">
-        <v>0.63770700000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.37880599999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>4.0277E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.64099899999999999</v>
+      </c>
+      <c r="E32">
+        <v>4.3969569999999996</v>
+      </c>
+      <c r="F32">
+        <v>10.257724</v>
+      </c>
+      <c r="G32">
+        <v>0.34993299999999999</v>
+      </c>
+      <c r="H32">
+        <v>0.117452</v>
+      </c>
+      <c r="I32">
+        <v>0.32333600000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>4.8078000000000003E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.75126000000000004</v>
+      </c>
+      <c r="E33">
+        <v>5.9233130000000003</v>
+      </c>
+      <c r="F33">
+        <v>10.492763999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.40708699999999998</v>
+      </c>
+      <c r="H33">
+        <v>0.14266200000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.48966599999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>5.5389000000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.82297100000000001</v>
+      </c>
+      <c r="E34">
+        <v>7.4278320000000004</v>
+      </c>
+      <c r="F34">
+        <v>10.827507000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.48046699999999998</v>
+      </c>
+      <c r="H34">
+        <v>0.18113000000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.666269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>6.1753000000000002E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.86401700000000003</v>
+      </c>
+      <c r="E35">
+        <v>8.6587130000000005</v>
+      </c>
+      <c r="F35">
+        <v>11.260870000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.55983400000000005</v>
+      </c>
+      <c r="H35">
+        <v>0.240957</v>
+      </c>
+      <c r="I35">
+        <v>0.80791999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>6.7116999999999996E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.88804099999999997</v>
+      </c>
+      <c r="E36">
+        <v>10.20462</v>
+      </c>
+      <c r="F36">
+        <v>11.812839</v>
+      </c>
+      <c r="G36">
+        <v>0.64397800000000005</v>
+      </c>
+      <c r="H36">
+        <v>0.32545600000000002</v>
+      </c>
+      <c r="I36">
+        <v>0.88609599999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>5.4452E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.78780300000000003</v>
+      </c>
+      <c r="E37">
+        <v>7.4187159999999999</v>
+      </c>
+      <c r="F37">
+        <v>10.960126000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.48788900000000002</v>
+      </c>
+      <c r="H37">
+        <v>0.20755499999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.63770700000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
     </row>
   </sheetData>
